--- a/document/技术债.xlsx
+++ b/document/技术债.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>1. access token 的用户名和密码</t>
+  </si>
+  <si>
+    <t>2. 所有非常用代码（如访问数据库）延迟加载</t>
   </si>
 </sst>
 </file>
@@ -42,12 +45,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,17 +354,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/document/技术债.xlsx
+++ b/document/技术债.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>1. access token 的用户名和密码</t>
   </si>
   <si>
     <t>2. 所有非常用代码（如访问数据库）延迟加载</t>
+  </si>
+  <si>
+    <t>3. nodejs日志处理</t>
+  </si>
+  <si>
+    <t>4. nodejs 值守程序 forever</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,6 +378,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/技术债.xlsx
+++ b/document/技术债.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>1. access token 的用户名和密码</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>4. nodejs 值守程序 forever</t>
+  </si>
+  <si>
+    <t>5. 覆盖层加载优化 - 移动图层时已存在的maker不需要重新加载。</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +391,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
